--- a/fuentes/contenidos/grado10/guion11/ESCALETA_FINAL_CN_10_11_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion11/ESCALETA_FINAL_CN_10_11_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Desktop\Edición Planeta\CN_10_11_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado10\guion11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1027,34 +1027,16 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,6 +1076,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1402,9 +1402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,94 +1432,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="32" t="s">
+      <c r="N1" s="46"/>
+      <c r="O1" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="49" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="47"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="41"/>
       <c r="M2" s="27" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="50"/>
     </row>
     <row r="3" spans="1:21" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2556,7 +2556,7 @@
         <v>16</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>251</v>
@@ -4748,6 +4748,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4762,12 +4768,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
